--- a/medicine/Mort/Hollywood_Cemetery/Hollywood_Cemetery.xlsx
+++ b/medicine/Mort/Hollywood_Cemetery/Hollywood_Cemetery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Hollywood Cemetery est un cimetière situé à Oregon Hill (en) près de Richmond en Virginie.
@@ -515,7 +527,9 @@
           <t>Liste des personnalités connue inhumée et leurs familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(Remarque : il s'agit d'une liste partielle.)
 </t>
@@ -546,7 +560,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Alden Aaroe (1918–1993), journaliste audiovisuel
 Carl William Ackerman (1890-1970), journaliste américain, auteur et administrateur éducatif, le premier doyen de la Columbia School of Journalism
@@ -582,7 +598,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>William Barret (1786–1871), homme d'affaires, fabricant de tabac considéré l'homme le plus riche de Richmond
 Benjamin Barrett, artiste, poète, écrivain
@@ -625,7 +643,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>James Branch Cabell (1879–1958), écrivain.
 James E. Cannon (1873–1942), sénateur de l'État de Virginie (1914–1923).
@@ -665,7 +685,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Virginius Dabney (1901–1995) auteur, journaliste, rédacteur en chef du The Richmond Times Dispatch de 1936 à 1969, récipiendaire du  prix Pulitzer
 Peter V. Daniel (1784–1860), U.S. Supreme Court Associate Justice
@@ -702,7 +724,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Tazewell Ellett (1856–1914), représentant des États-Unis de Virginie
 Joseph Black Elliott, Sr. (1904–1988), Executive Vice-President/Radio Corporation of America (RCA) responsable du la division Consumer Product
@@ -734,7 +758,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Douglas Southall Freeman (1886–1953), journaliste et historien. Il est l'auteur des biographies de George Washington et de Robert E. Lee. il y a aussi une high school locales qui porte son nom.</t>
         </is>
@@ -764,7 +790,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Richard B. Garnett (1817–1863), officier de l'US Army et général confédéré de la guerre de Sécession tué à la bataille de Gettysburg
 Julian Vaughan Gary (1892–1973), membre du Congrès des États-Unis (1945–1965)
@@ -776,7 +804,7 @@
 Maria Hester (Monroe) Gouverneur (1804-1850), fille du président James Monroe
 Peachy Ridgway Grattan (1801–1881), avocat et reporter juridique.
 William Green (1806–1880), avocat.
-Charles Philip Gruchy (mort en 1921), Private, 3rd Battalion, Canadian Infantry – seule tombe de guerre du commonwealth britannique dans le cimetière[1].
+Charles Philip Gruchy (mort en 1921), Private, 3rd Battalion, Canadian Infantry – seule tombe de guerre du commonwealth britannique dans le cimetière.
 Walter Gwynn (1802-1882), général confédéré de la guerre de Sécession</t>
         </is>
       </c>
@@ -805,7 +833,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>James Dandridge Halyburton (1803–1879), juge U.S. et confédéré, district est de Virginie (1843–1865)
 David Bullock Harris (1814-1964), colonel confédéré de la guerre de Sécession
@@ -842,7 +872,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>John D. Imboden (1823–1895), avocat, professeur, législateur de Virginie, général confédéré de cavalerie</t>
         </is>
@@ -872,7 +904,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Edward Johnson (1816–1873), officier de l'US Army et général confédéré de la guerre de Sécession.
 Mary Johnston (1870–1936), écrivain et féministe.
@@ -905,7 +939,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Wythe Leigh Kinsolving (1878–1964), prête épiscopal, écrivain, poète, avocat politique.</t>
         </is>
@@ -935,7 +971,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>John Lamb (1840–1924), membre du Congrès des États-Unis (1897–1913).
 Fitzhugh Lee (1835–1905), général confédéré de cavalerie, gouverneur de Virginie, diplomate, général de l'US Army lors de la guerre hispano-américaine et neveu du général Robert E. Lee.
@@ -968,7 +1006,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Hunter McGuire (1835–1900), médecin de l'armée confédéré qui a amputé le bras du général Thomas J. "Stonewall" Jackson après le tir fratricide de soldats confédérés à Chancellorsville. (Malgré les efforts de McGuire, Jackson meurt plus tard d'une pneumonie.) Après la guerre, McGuire fonde le Virginia College of Medicine, et est président de l'Association médicale américaine.
 Angus William McDonald (1799–1864), officier américain et avocat de l'État de Virginia et colonel de la Confederate States Army
@@ -1017,7 +1057,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Charles Triplett O'Ferrall (1840–1905), gouverneur de Virginie (1894–1898)
 Robert Ould (1820-1882), procureur, officiel confédéré</t>
@@ -1048,7 +1090,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Emma Gilham Page (1855–1933),épouse de William Nelson Page
 Mann Page (1835–1904) grand maître des maçons de Virginie 1894, soldat de la guerre de Sécession , Co. F. 21st Virginia Infantry
@@ -1093,7 +1137,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>John Randolph (1773–1833), politicien, leader au Congrès de Virginie
 William Francis Rhea (1858–1931), avocat de Virginie, juge, et membre du Congrès des États-Unis
@@ -1128,7 +1174,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Dave Edward Satterfield, Jr. (1894–1946), membre du Congrès des États-Unis 1937–1946.
 Conrad Frederick Sauer (1866–1927), fondateur de la C. F. Sauer Company
@@ -1170,7 +1218,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>John Banister Tabb (1845–1909), poète et prête.
 William R. Terry (1827–1897), général confédéré de la guerre de Sécession
@@ -1207,7 +1257,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Edward Valentine (1838–1930), sculpteur</t>
         </is>
@@ -1237,7 +1289,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Edmund Waddill, Jr. (1855–1931), membre du Congrès des États-Unis (1889–1891); juge des États-Unis de la quatrième Circuit Court des appels (1921–1931).
 Reuben Lindsay Walker (1827–1890), général confédéré de la guerre de Sécession
@@ -1281,7 +1335,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Thomas Yates</t>
         </is>
